--- a/biology/Zoologie/Caenorhabditis_nigoni/Caenorhabditis_nigoni.xlsx
+++ b/biology/Zoologie/Caenorhabditis_nigoni/Caenorhabditis_nigoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenorhabditis nigoni est une espèce de nématodes de la famille des Rhabditidae et dont il existe plusieurs souches (JU1325, JU1422, KK-2011, MAF-2010).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Caenorhabditis nigoni a été décrite en 2014 par Marie-Anne Félix, Christian Braendle (d) et Asher D. Cutter (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caenorhabditis nigoni a été décrite en 2014 par Marie-Anne Félix, Christian Braendle (d) et Asher D. Cutter (d).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, nigoni, lui a été donnée en l'honneur du zoologiste et biologiste français Victor Nigon (1920-2015) spécialiste des nématodes et professeur de biologie et de génétique à la faculté des sciences de Lyon.
 </t>
@@ -573,9 +589,11 @@
           <t>Études phylogénétiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude phylogénétique réalisée en 2014[1] révèle la présence de deux super-groupes, 'Elegans' et Drosophilae parmi les espèces du genre Caenorhabditis et de deux groupes (Elegans et Japonica) au sein du super-groupe Elegans. Cette étude révèle aussi que C. nigoni est l'espèce-sœur de C. briggsae tandis que C. elegans est seul, basal dans le groupe Elegans[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude phylogénétique réalisée en 2014 révèle la présence de deux super-groupes, 'Elegans' et Drosophilae parmi les espèces du genre Caenorhabditis et de deux groupes (Elegans et Japonica) au sein du super-groupe Elegans. Cette étude révèle aussi que C. nigoni est l'espèce-sœur de C. briggsae tandis que C. elegans est seul, basal dans le groupe Elegans.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Marie-Anne Félix, Christian Braendle et Asher D. Cutter, « A Streamlined System for Species Diagnosis in Caenorhabditis (Nematoda: Rhabditidae) with Name Designations for 15 Distinct Biological Species », PLOS One, PLoS, vol. 9, no 4,‎ 11 avril 2014, e94723 (ISSN 1932-6203, OCLC 228234657, PMID 24727800, PMCID 3984244, DOI 10.1371/JOURNAL.PONE.0094723, lire en ligne)</t>
         </is>
